--- a/idee_taradingowe_fresh_head.xlsx
+++ b/idee_taradingowe_fresh_head.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Scripts\my_scripts\My_Trading_Strategies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12AE16D6-141A-4668-B2F6-9EE7D9F8E043}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB94B0A-F4E8-46CD-9317-A43F98A02243}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Plan</t>
   </si>
@@ -34,13 +34,79 @@
 Wylistować takie sytuacje.
 Wylistować wartość firmy przez następne dwa tygodnie od spadku.
 Wylistować daty kiedy dana firma wrócia na poziom sprzed spadku.</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>bounce back</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	1. Pobrać dane 50 firm z różnych sektorów, co 4 godziny.
+	2. Wykryć kiedy wartość akcji spadła w okresie 1 dnia, min 20%.
+	Ale w taki sposób, aby wykryć dno spadku.
+	3. Obliczyć dla wszystkich tych sytuacji wartość tych akcji, dla kolejnych 10 dni od dnia spadku.
+	4. Obliczyć jaki odsetek wszystkich takich przypadków wzrosła o 5% od dna, w okresie kolejnych 3, 5 i 10 dni.
+	5. Powtórzyć to dla innych progów procentowych: 2, 3, 7 i 10%.
+	6. Na podstawie tych danych ustalić czy strategia 'bouncing back" ma sens.
+	Jeżeli tak, to ustalić w jakim momencie najlepiej wrzucać i po osiągnięciu jakiego progu wyciągać.
+	7. Ustawić automatyczne, co-godzinne pobieranie danych z internetu.
+	8. Ustawić automatyczny email notiffcation z informacją o:
+		a. Ticker
+		b. gwałtownym spadku
+		c. wielkości spadku
+		d. okresie spadku
+		e. historię podobnych sytuacji dla tego Tickera (czy po gwałtowych spadkach, odbijał się w najbliższych dniach)
+		f. informacją czy jest to spadek całego runku lub sektora czy indywidualny
+		g. Informacją co spowodowało taki spadek (for the future)
+		h. Informacją kiedy ukazują się earnings tej firmy</t>
+  </si>
+  <si>
+    <t>bounce back 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	1. Pobrać dane 50 firm co 4 godziny.
+	2. Pobrać daty ukazywania earnings raportów tych firm.
+	3. Skorelować je z wartościami akcji.
+Przeanalizować czy są jakieś stałe zależności.</t>
+  </si>
+  <si>
+    <t>EARNINGS IMPACT</t>
+  </si>
+  <si>
+    <t>KORELACJA WEWNĄTRZ SEKTORA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	1. Pobrać dane 50 firm w tym samych sektorze biznesu. 
+	2. Pobrać ich dane co godzinę od roku. 
+	3. Powtórzyć to dla innych sektorów biznesu.
+Przeanalizować zależności i wyciągnąć powtarzalne wnioski. </t>
+  </si>
+  <si>
+    <t>KORELACJA POMIĘDZY SEKTORAMI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	1. Pobrać dane 20 firm z jednego i 20 firm z drugiego sektora biznesu.
+	2. Pobrać ich dane co godzinę od roku.
+	3. Powtórzyć to dla innych sektorów.
+Przeanalizować zależności i wyciągnąć powtarzalne wnioski.</t>
+  </si>
+  <si>
+    <t>BIG WORD'S/US EVENTS IMPACT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	1. Pobrać dane 100 firm z różnych sektorów, co raz dziennie. 
+	2. Pobrać daty:
+		a. zmian stóp procentowych
+		b. spatkań OPEC
+ważnych wydarzeń na świecie (googlać duże wydarzenia z przeszłości)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,16 +122,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -73,18 +171,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -363,25 +483,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B1" sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.140625" customWidth="1"/>
+    <col min="1" max="1" width="54.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="120.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="270" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
